--- a/2016년 재료비 8월/논술2 교재비.xlsx
+++ b/2016년 재료비 8월/논술2 교재비.xlsx
@@ -299,9 +299,6 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -319,6 +316,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -618,7 +618,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -635,174 +635,174 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="17">
         <v>16</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="19">
         <v>10000</v>
       </c>
-      <c r="G2" s="19"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="17">
         <v>1</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="19">
         <v>10000</v>
       </c>
-      <c r="G3" s="18"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="17">
         <v>24</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="20">
         <v>10000</v>
       </c>
-      <c r="G4" s="19"/>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="17">
         <v>16</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="19">
         <v>10000</v>
       </c>
-      <c r="G5" s="18"/>
+      <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="17">
         <v>11</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="19">
         <v>10000</v>
       </c>
-      <c r="G6" s="18"/>
+      <c r="G6" s="17"/>
     </row>
     <row r="7" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="17">
         <v>13</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="19">
         <v>10000</v>
       </c>
-      <c r="G7" s="18"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="17">
         <v>1</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="19">
         <v>10000</v>
       </c>
-      <c r="G8" s="19"/>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" customHeight="1">
       <c r="A9" s="11" t="s">
@@ -905,16 +905,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="5" t="s">

--- a/2016년 재료비 8월/논술2 교재비.xlsx
+++ b/2016년 재료비 8월/논술2 교재비.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="555" windowWidth="19440" windowHeight="11760"/>
@@ -12,12 +12,12 @@
     <sheet name="Sheet3" sheetId="3" state="hidden" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>*주야</t>
   </si>
@@ -119,27 +119,23 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>박예은</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>서민경</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>2반</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>박예은</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>서민경</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 엄예준 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 김경민 </t>
+    <t>엄예준</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>김경민</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -615,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -728,13 +724,13 @@
         <v>29</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D5" s="17">
         <v>16</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="19">
         <v>10000</v>
@@ -755,7 +751,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" s="19">
         <v>10000</v>
@@ -776,7 +772,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" s="19">
         <v>10000</v>
@@ -797,7 +793,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" s="19">
         <v>10000</v>
@@ -805,24 +801,7 @@
       <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A9" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" customHeight="1">
       <c r="F10" s="2"/>
@@ -837,49 +816,40 @@
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" customHeight="1">
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" customHeight="1">
-      <c r="F15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="16.5" customHeight="1">
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="6:7" ht="16.5" customHeight="1">
+      <c r="F16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" ht="16.5" customHeight="1">
       <c r="F17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="6:7" ht="16.5" customHeight="1">
+    </row>
+    <row r="18" spans="6:6" ht="16.5" customHeight="1">
       <c r="F18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="6:7" ht="16.5" customHeight="1">
-      <c r="F19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="6:7" ht="16.5" customHeight="1">
-      <c r="F20" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="6:7" ht="16.5" customHeight="1">
-      <c r="F21" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="6:7" ht="16.5" customHeight="1"/>
+    </row>
+    <row r="19" spans="6:6" ht="16.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2016년 재료비 8월/논술2 교재비.xlsx
+++ b/2016년 재료비 8월/논술2 교재비.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <bookViews>
-    <workbookView xWindow="240" yWindow="555" windowWidth="19440" windowHeight="11760"/>
-  </bookViews>
-  <sheets>
-    <sheet name="논술 2 교재비" sheetId="1" r:id="rId1"/>
-    <sheet name="자유수강생" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" state="hidden" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
-  </sheets>
-  <calcPr calcId="124519"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr codeName="ThisWorkbook"/>
+  <s:bookViews>
+    <s:workbookView activeTab="0"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="논술 2 교재비" sheetId="1" r:id="rId1"/>
+    <s:sheet name="자유수강생" sheetId="2" r:id="rId2" state="hidden"/>
+    <s:sheet name="Sheet3" sheetId="3" r:id="rId3" state="hidden"/>
+    <s:sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t>*주야</t>
   </si>
@@ -43,15 +43,51 @@
     <t>주간</t>
   </si>
   <si>
+    <t xml:space="preserve"> 1학년 </t>
+  </si>
+  <si>
+    <t>3반</t>
+  </si>
+  <si>
+    <t>이윤찬</t>
+  </si>
+  <si>
     <t>1학년</t>
   </si>
   <si>
-    <t>3반</t>
-  </si>
-  <si>
     <t>4반</t>
   </si>
   <si>
+    <t>고경빈</t>
+  </si>
+  <si>
+    <t>최창민</t>
+  </si>
+  <si>
+    <t>자유수강대상자</t>
+  </si>
+  <si>
+    <t>2학년</t>
+  </si>
+  <si>
+    <t>2반</t>
+  </si>
+  <si>
+    <t>엄예준</t>
+  </si>
+  <si>
+    <t>박예은</t>
+  </si>
+  <si>
+    <t>서민경</t>
+  </si>
+  <si>
+    <t>김경민</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>2015년 1분기 (3월) 방과후재료비 (       통기타         ) 수강생명단</t>
   </si>
   <si>
@@ -77,66 +113,6 @@
   </si>
   <si>
     <t>비고</t>
-  </si>
-  <si>
-    <t>4반</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>고경빈</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>최창민</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3반</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>이윤찬</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>주간</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1학년 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2학년</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>박예은</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>서민경</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2반</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>엄예준</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>김경민</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -144,58 +120,59 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-" numFmtId="164"/>
   </numFmts>
   <fonts count="5">
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="굴림체"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color theme="1"/>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="굴림체"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <b/>
+      <name val="굴림체"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="굴림체"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color rgb="00000000"/>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.1499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -208,7 +185,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.7999816888943144"/>
       </patternFill>
     </fill>
   </fills>
@@ -246,83 +223,84 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="23">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="2" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="2" numFmtId="164" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="6" name="쉼표 [0]" xfId="0"/>
+    <cellStyle builtinId="0" name="표준" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -610,370 +588,393 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="11" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="14.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18" style="11" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col customWidth="1" max="1" min="1" style="17" width="10.625"/>
+    <col customWidth="1" max="2" min="2" style="17" width="10.375"/>
+    <col customWidth="1" max="3" min="3" style="17" width="10.625"/>
+    <col customWidth="1" max="4" min="4" style="17" width="10.5"/>
+    <col customWidth="1" max="5" min="5" style="17" width="12.125"/>
+    <col customWidth="1" max="6" min="6" style="1" width="14.625"/>
+    <col customWidth="1" max="7" min="7" style="17" width="18"/>
+    <col customWidth="1" max="8" min="8" style="1" width="9"/>
+    <col customWidth="1" max="16384" min="9" style="1" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A1" s="15" t="s">
+    <row customHeight="1" s="22" r="1" ht="16.5" spans="1:7">
+      <c s="15" r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c s="15" r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c s="15" r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c s="15" r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c s="15" r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c s="16" r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c s="15" r="G1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A2" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="17">
+    <row customHeight="1" s="22" r="2" ht="16.5" spans="1:7">
+      <c s="17" r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c s="17" r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c s="17" r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c s="17" r="D2" t="n">
         <v>16</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="19">
+      <c s="17" r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c s="19" r="F2" t="n">
         <v>10000</v>
       </c>
-      <c r="G2" s="18"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A3" s="17" t="s">
+      <c s="18" r="G2" t="n"/>
+    </row>
+    <row customHeight="1" s="22" r="3" ht="16.5" spans="1:7">
+      <c s="17" r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="17" t="s">
+      <c s="17" r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c s="17" r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c s="17" r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c s="17" r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c s="19" r="F3" t="n">
+        <v>10000</v>
+      </c>
+      <c s="17" r="G3" t="n"/>
+    </row>
+    <row customHeight="1" s="22" r="4" ht="16.5" spans="1:7">
+      <c s="17" r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c s="17" r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c s="17" r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c s="17" r="D4" t="n">
+        <v>24</v>
+      </c>
+      <c s="17" r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c s="20" r="F4" t="n">
+        <v>10000</v>
+      </c>
+      <c s="18" r="G4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row customHeight="1" s="22" r="5" ht="16.5" spans="1:7">
+      <c s="17" r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c s="17" r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c s="17" r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c s="17" r="D5" t="n">
+        <v>16</v>
+      </c>
+      <c s="17" r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c s="19" r="F5" t="n">
+        <v>10000</v>
+      </c>
+      <c s="17" r="G5" t="n"/>
+    </row>
+    <row customHeight="1" s="22" r="6" ht="16.5" spans="1:7">
+      <c s="17" r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c s="17" r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c s="17" r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c s="17" r="D6" t="n">
+        <v>11</v>
+      </c>
+      <c s="17" r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c s="19" r="F6" t="n">
+        <v>10000</v>
+      </c>
+      <c s="17" r="G6" t="n"/>
+    </row>
+    <row customHeight="1" s="22" r="7" ht="16.5" spans="1:7">
+      <c s="17" r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c s="17" r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c s="17" r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c s="17" r="D7" t="n">
+        <v>13</v>
+      </c>
+      <c s="17" r="E7" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="17">
+      <c s="19" r="F7" t="n">
+        <v>10000</v>
+      </c>
+      <c s="17" r="G7" t="n"/>
+    </row>
+    <row customHeight="1" s="22" r="8" ht="16.5" spans="1:7">
+      <c s="17" r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c s="17" r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c s="17" r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c s="17" r="D8" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c s="17" r="E8" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="19">
+      <c s="19" r="F8" t="n">
         <v>10000</v>
       </c>
-      <c r="G3" s="17"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A4" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="17">
-        <v>24</v>
-      </c>
-      <c r="E4" s="17" t="s">
+      <c s="18" r="G8" t="n"/>
+    </row>
+    <row customHeight="1" s="22" r="9" ht="16.5" spans="1:7">
+      <c s="18" r="F9" t="n"/>
+    </row>
+    <row customHeight="1" s="22" r="10" ht="16.5" spans="1:7">
+      <c s="18" r="F10" t="n"/>
+    </row>
+    <row customHeight="1" s="22" r="11" ht="16.5" spans="1:7">
+      <c s="18" r="F11" t="n"/>
+    </row>
+    <row customHeight="1" s="22" r="12" ht="16.5" spans="1:7">
+      <c s="18" r="F12" t="n"/>
+    </row>
+    <row customHeight="1" s="22" r="13" ht="16.5" spans="1:7">
+      <c s="18" r="F13" t="n"/>
+    </row>
+    <row customHeight="1" s="22" r="14" ht="16.5" spans="1:7">
+      <c s="18" r="F14" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="20">
-        <v>10000</v>
-      </c>
-      <c r="G4" s="18"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A5" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="17">
-        <v>16</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="19">
-        <v>10000</v>
-      </c>
-      <c r="G5" s="17"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A6" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="17">
-        <v>11</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="19">
-        <v>10000</v>
-      </c>
-      <c r="G6" s="17"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A7" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="17">
-        <v>13</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="19">
-        <v>10000</v>
-      </c>
-      <c r="G7" s="17"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A8" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="17">
-        <v>1</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="19">
-        <v>10000</v>
-      </c>
-      <c r="G8" s="18"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" customHeight="1">
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" customHeight="1">
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" customHeight="1">
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" customHeight="1">
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" customHeight="1">
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" customHeight="1">
-      <c r="F14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" customHeight="1">
-      <c r="F15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="16.5" customHeight="1">
-      <c r="F16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="6:6" ht="16.5" customHeight="1">
-      <c r="F17" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="6:6" ht="16.5" customHeight="1">
-      <c r="F18" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="6:6" ht="16.5" customHeight="1"/>
+      <c s="18" r="G14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row customHeight="1" s="22" r="15" ht="16.5" spans="1:7">
+      <c s="18" r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c s="18" r="G15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row customHeight="1" s="22" r="16" ht="16.5" spans="1:7">
+      <c s="18" r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c s="17" r="G16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row customHeight="1" s="22" r="17" ht="16.5" spans="1:7">
+      <c s="18" r="F17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row customHeight="1" s="22" r="18" ht="16.5" spans="1:7">
+      <c s="18" r="F18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row customHeight="1" s="22" r="19" ht="16.5" spans="1:7"/>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.25" right="0.25" top="0.75"/>
+  <pageSetup fitToHeight="0" fitToWidth="0" orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="5" width="10.625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="10.625" style="2" customWidth="1"/>
-    <col min="7" max="8" width="10.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col customWidth="1" max="5" min="1" style="17" width="10.625"/>
+    <col customWidth="1" max="6" min="6" style="18" width="10.625"/>
+    <col customWidth="1" max="8" min="7" style="1" width="10.625"/>
+    <col customWidth="1" max="9" min="9" style="1" width="9"/>
+    <col customWidth="1" max="16384" min="10" style="1" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-    </row>
-    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="3"/>
+    <row customHeight="1" s="22" r="1" ht="20.1" spans="1:8">
+      <c s="21" r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c s="21" r="B1" t="n"/>
+      <c s="21" r="C1" t="n"/>
+      <c s="21" r="D1" t="n"/>
+      <c s="21" r="E1" t="n"/>
+      <c s="21" r="F1" t="n"/>
+      <c s="21" r="G1" t="n"/>
+      <c s="21" r="H1" t="n"/>
+    </row>
+    <row r="2" spans="1:8"/>
+    <row customHeight="1" s="22" r="3" ht="20.1" spans="1:8">
+      <c s="5" r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c s="5" r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c s="5" r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c s="5" r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c s="5" r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c s="4" r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c s="4" r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c s="5" r="H3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row customHeight="1" s="22" r="4" ht="20.1" spans="1:8">
+      <c s="6" r="A4" t="n"/>
+      <c s="6" r="B4" t="n"/>
+      <c s="6" r="C4" t="n"/>
+      <c s="7" r="D4" t="n"/>
+      <c s="8" r="E4" t="n"/>
+      <c s="9" r="F4" t="n"/>
+      <c s="10" r="G4" t="n"/>
+      <c s="6" r="H4" t="n"/>
+    </row>
+    <row customHeight="1" s="22" r="5" ht="20.1" spans="1:8">
+      <c s="6" r="A5" t="n"/>
+      <c s="6" r="B5" t="n"/>
+      <c s="6" r="C5" t="n"/>
+      <c s="7" r="D5" t="n"/>
+      <c s="8" r="E5" t="n"/>
+      <c s="9" r="F5" t="n"/>
+      <c s="10" r="G5" t="n"/>
+      <c s="6" r="H5" t="n"/>
+    </row>
+    <row customHeight="1" s="22" r="6" ht="20.1" spans="1:8">
+      <c s="12" r="A6" t="n"/>
+      <c s="12" r="B6" t="n"/>
+      <c s="12" r="C6" t="n"/>
+      <c s="12" r="D6" t="n"/>
+      <c s="12" r="E6" t="n"/>
+      <c s="13" r="F6" t="n"/>
+      <c s="14" r="G6" t="n"/>
+      <c s="3" r="H6" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
-  <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1"/>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
-  <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1"/>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>